--- a/sharedata/exceldata/excel/all/Q-情人表.xlsx
+++ b/sharedata/exceldata/excel/all/Q-情人表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\黑帮_国内\exceldata\excel\all\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\黑帮_国内\exceldata\sharedata\exceldata\excel\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4074,35 +4074,32 @@
       <pane xSplit="7" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="25" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" style="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.33203125" style="25" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" style="25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.44140625" style="25" customWidth="1"/>
-    <col min="5" max="5" width="9" style="25"/>
+    <col min="5" max="5" width="10.5546875" style="25" customWidth="1"/>
     <col min="6" max="6" width="14.44140625" style="25" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" style="25" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" style="25" customWidth="1"/>
-    <col min="9" max="9" width="32.88671875" style="25" customWidth="1"/>
-    <col min="10" max="10" width="75.33203125" style="25" customWidth="1"/>
+    <col min="8" max="9" width="16.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" style="25" customWidth="1"/>
     <col min="11" max="11" width="26.88671875" style="25" customWidth="1"/>
     <col min="12" max="12" width="23.5546875" style="25" customWidth="1"/>
     <col min="13" max="13" width="43.21875" style="25" customWidth="1"/>
-    <col min="14" max="14" width="23.88671875" style="25" customWidth="1"/>
-    <col min="15" max="15" width="54.109375" style="25" customWidth="1"/>
-    <col min="16" max="16" width="22.6640625" style="25" customWidth="1"/>
-    <col min="17" max="17" width="23.5546875" style="25" customWidth="1"/>
-    <col min="18" max="18" width="26" style="25" customWidth="1"/>
-    <col min="19" max="19" width="23.21875" style="25" customWidth="1"/>
-    <col min="20" max="20" width="24.33203125" style="25" customWidth="1"/>
-    <col min="21" max="21" width="33.21875" style="25" customWidth="1"/>
-    <col min="22" max="22" width="20.6640625" style="25" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.88671875" style="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.21875" style="25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="15" style="25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.6640625" style="25" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="106.88671875" style="25" customWidth="1"/>
-    <col min="24" max="24" width="98.109375" style="25" customWidth="1"/>
+    <col min="24" max="24" width="16.5546875" style="25" customWidth="1"/>
     <col min="25" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
